--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Chadni Mukhra/Chadni_mukhra_input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Chadni Mukhra/Chadni_mukhra_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
